--- a/source_code/bohori/input.xlsx
+++ b/source_code/bohori/input.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -38,22 +38,22 @@
     <t>option3</t>
   </si>
   <si>
-    <t>vv0011</t>
-  </si>
-  <si>
-    <t>vvvv0000</t>
-  </si>
-  <si>
-    <t>우리 루비 피부가 엄청 예민해서 항상 샴푸쓸때마다 걱정했는데 이건 성분도 착하고 순해서 걱정없이 잘쓰고있어요~</t>
-  </si>
-  <si>
-    <t>https://bohori.com/product/detail.html?product_no=56</t>
-  </si>
-  <si>
-    <t>vv0012</t>
-  </si>
-  <si>
-    <t>광고에 많이 뜨길래 한번 사봤는데 생각보다 너무 좋아요!! 거품도 잘나고 향기도 좋고! 앞으로도 꾸준히 써볼라고요 ㅎㅎ</t>
+    <t>cc0001</t>
+  </si>
+  <si>
+    <t>aaaa0000</t>
+  </si>
+  <si>
+    <t>울 남친은 립밥을 사줘도 맨날 귀찮다고 안발라요 ㅡㅡ 그래서 그냥 만났을때 립타투 시키고 하루종일 이쁜 입술로 돌아다닙니다 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>http://amenz.kr/product/%EC%96%B4%EB%A7%A8%EC%A6%88-%EB%A6%BD%ED%83%80%ED%88%AC%ED%8C%A9/11/category/1/display/2/</t>
+  </si>
+  <si>
+    <t>성별</t>
+  </si>
+  <si>
+    <t>연령대</t>
   </si>
   <si>
     <t>gg0031</t>
@@ -65,58 +65,13 @@
     <t>다이어트하는데 친구가 붓기 빼는게 중요하다해서 한번 사봤어요! 매일 먹으니깐 확실히 몸 붓는게 덜해진 느낌? 좋아요!</t>
   </si>
   <si>
-    <t>https://monthlypick.kr/product/%EB%B0%98%EC%9D%98%EB%B0%98%EB%8B%AC/14/category/1/display/2/</t>
+    <t>여성</t>
+  </si>
+  <si>
+    <t>20대</t>
   </si>
   <si>
     <t>gg0032</t>
-  </si>
-  <si>
-    <t>서서일하는 직업이라 다리가 많이 붓더라고요.. 맨날 신는 구도도 안맞을만큼 부어서 붓기빼는거? 찾아보니깐 리뷰도 좋고해서 먹어봤는데 꾸준히 먹으니깐 붓기가 많이 빠졌어요ㅠㅠ 이제 구도도 잘 맞아용!!</t>
-  </si>
-  <si>
-    <t>ab0012</t>
-  </si>
-  <si>
-    <t>aaaa0000</t>
-  </si>
-  <si>
-    <t>친구들이 추천하길래 한번 사봤어용! 먹는제품은 효과가 있는지 없는지 모르겠던데 이건 직접 사용하는거라 효과가 바로바로 보이는것같아용! 꾸준히 써보겠습니닷!</t>
-  </si>
-  <si>
-    <t>https://slonous.com/product/%ED%95%9C%EC%A3%BC-%EB%9D%BD%ED%86%A0%EB%8D%B0%EC%95%84-%ED%8E%98%EB%AF%B8%EB%8B%8C%EC%BC%80%EC%96%B4-%EC%A0%A4/18/category/29/display/1/</t>
-  </si>
-  <si>
-    <t>ab0013</t>
-  </si>
-  <si>
-    <t>언니가 사줘서 써봤는데 진짜 좋아요 ㅠㅠ 확실히 효과가 있는듯…! 냄새가 많이 줄었어요!! 넘 신기해요 ㅠㅠㅠ</t>
-  </si>
-  <si>
-    <t>cc0000</t>
-  </si>
-  <si>
-    <t>여자친구가 입술이 너무 하애서 웃기다고 놀려서 샀습니다 ㅠㅠ 한번바르면 지속력이 오래가서 좋습니다!</t>
-  </si>
-  <si>
-    <t>http://amenz.kr/product/%EC%96%B4%EB%A7%A8%EC%A6%88-%EB%A6%BD%ED%83%80%ED%88%AC%ED%8C%A9/11/category/1/display/2/</t>
-  </si>
-  <si>
-    <t>cc0001</t>
-  </si>
-  <si>
-    <t>울 남친은 립밥을 사줘도 맨날 귀찮다고 안발라요 ㅡㅡ 그래서 그냥 만났을때 립타투 시키고 하루종일 이쁜 입술로 돌아다닙니다 ㅎㅎ</t>
-  </si>
-  <si>
-    <t>성별</t>
-  </si>
-  <si>
-    <t>연령대</t>
-  </si>
-  <si>
-    <t>여성</t>
-  </si>
-  <si>
-    <t>20대</t>
   </si>
   <si>
     <t xml:space="preserve">서서일하는 직업이라 다리가 많이 붓더라고요.. 맨날 신는 구도도 안맞을만큼 부어서 붓기빼는거? 찾아보니깐 리뷰도 좋고해서 먹어봤는데 꾸준히 먹으니깐 붓기가 많이 빠졌어요ㅠㅠ 이제 구도도 잘 맞아용!! </t>
@@ -180,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -194,22 +149,6 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0563C1"/>
-      <name val="&quot;Malgun Gothic&quot;"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
     </font>
@@ -218,6 +157,11 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -258,28 +202,19 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,195 +479,35 @@
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>5.0</v>
       </c>
-      <c r="F2" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3.0</v>
+      <c r="F2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.0</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="9">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="9">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="3"/>
-    </row>
+    <row r="3" ht="16.5" customHeight="1"/>
+    <row r="4" ht="16.5" customHeight="1"/>
+    <row r="5" ht="16.5" customHeight="1"/>
+    <row r="6" ht="16.5" customHeight="1"/>
+    <row r="7" ht="16.5" customHeight="1"/>
+    <row r="8" ht="16.5" customHeight="1"/>
+    <row r="9" ht="16.5" customHeight="1"/>
+    <row r="10" ht="16.5" customHeight="1"/>
+    <row r="11" ht="16.5" customHeight="1"/>
+    <row r="12" ht="16.5" customHeight="1"/>
+    <row r="13" ht="16.5" customHeight="1"/>
+    <row r="14" ht="16.5" customHeight="1"/>
+    <row r="15" ht="16.5" customHeight="1"/>
     <row r="16" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
@@ -1705,34 +1480,14 @@
     <row r="985" ht="16.5" customHeight="1"/>
     <row r="986" ht="16.5" customHeight="1"/>
     <row r="987" ht="16.5" customHeight="1"/>
-    <row r="988" ht="16.5" customHeight="1"/>
-    <row r="989" ht="16.5" customHeight="1"/>
-    <row r="990" ht="16.5" customHeight="1"/>
-    <row r="991" ht="16.5" customHeight="1"/>
-    <row r="992" ht="16.5" customHeight="1"/>
-    <row r="993" ht="16.5" customHeight="1"/>
-    <row r="994" ht="16.5" customHeight="1"/>
-    <row r="995" ht="16.5" customHeight="1"/>
-    <row r="996" ht="16.5" customHeight="1"/>
-    <row r="997" ht="16.5" customHeight="1"/>
-    <row r="998" ht="16.5" customHeight="1"/>
-    <row r="999" ht="16.5" customHeight="1"/>
-    <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="D5"/>
-    <hyperlink r:id="rId5" ref="D6"/>
-    <hyperlink r:id="rId6" ref="D7"/>
-    <hyperlink r:id="rId7" ref="D8"/>
-    <hyperlink r:id="rId8" ref="D9"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1768,17 +1523,17 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1788,190 +1543,190 @@
         <v>5.0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>5.0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1">
         <v>5.0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>5.0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1">
         <v>5.0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1">
         <v>5.0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1">
         <v>5.0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1">
         <v>5.0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1">
         <v>5.0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1">
         <v>5.0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1"/>
